--- a/docs/ARTEFATOS(15-23)/COZINHA/PREPARAR_PEDIDO/Analise_de_Eventos_PREPARAR_PEDIDO.xlsx
+++ b/docs/ARTEFATOS(15-23)/COZINHA/PREPARAR_PEDIDO/Analise_de_Eventos_PREPARAR_PEDIDO.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">FB</t>
   </si>
   <si>
-    <t xml:space="preserve">O cozinheiro consulta pratos diários</t>
+    <t xml:space="preserve">O cozinheiro consulta os pratos diários</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -347,7 +347,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
